--- a/resultats_ronde4.xlsx
+++ b/resultats_ronde4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
   <si>
     <t>equipe A</t>
   </si>
@@ -28,517 +28,502 @@
     <t>Chartered</t>
   </si>
   <si>
+    <t>Full Counter</t>
+  </si>
+  <si>
+    <t>Tight</t>
+  </si>
+  <si>
+    <t>Les lionceaux</t>
+  </si>
+  <si>
+    <t>Du nord au sud</t>
+  </si>
+  <si>
+    <t>Pierre Feuille Ciseaux</t>
+  </si>
+  <si>
+    <t>Les hhh</t>
+  </si>
+  <si>
+    <t>LES LASCARS</t>
+  </si>
+  <si>
+    <t>Air Planes Mode</t>
+  </si>
+  <si>
+    <t>ERREDE</t>
+  </si>
+  <si>
+    <t>Skyp</t>
+  </si>
+  <si>
+    <t>QueBendicion</t>
+  </si>
+  <si>
+    <t>Chaosmoz</t>
+  </si>
+  <si>
+    <t>PANTHEON</t>
+  </si>
+  <si>
+    <t>Petit Bateau</t>
+  </si>
+  <si>
+    <t>Askip</t>
+  </si>
+  <si>
+    <t>Hide your poney</t>
+  </si>
+  <si>
+    <t>Percozition</t>
+  </si>
+  <si>
+    <t>Les potites loutres sanguinaires</t>
+  </si>
+  <si>
+    <t>SAO</t>
+  </si>
+  <si>
+    <t>La MIF</t>
+  </si>
+  <si>
+    <t>Ocbzez</t>
+  </si>
+  <si>
+    <t>BSL</t>
+  </si>
+  <si>
+    <t>Noobers Rangers</t>
+  </si>
+  <si>
+    <t>Demons Des Arenes</t>
+  </si>
+  <si>
+    <t>Night Club</t>
+  </si>
+  <si>
+    <t>Le retour</t>
+  </si>
+  <si>
+    <t>Igoshimo Blank</t>
+  </si>
+  <si>
+    <t>La Rolex de Zlatan</t>
+  </si>
+  <si>
+    <t>IMPACT_</t>
+  </si>
+  <si>
+    <t>Les bigs</t>
+  </si>
+  <si>
+    <t>Les Bronzes</t>
+  </si>
+  <si>
+    <t>La bavande</t>
+  </si>
+  <si>
+    <t>Terra-ciste</t>
+  </si>
+  <si>
+    <t>La Kravatt</t>
+  </si>
+  <si>
+    <t>Juskicitouvabien</t>
+  </si>
+  <si>
+    <t>Sambayoyo</t>
+  </si>
+  <si>
+    <t>Squad-D_Rok</t>
+  </si>
+  <si>
+    <t>Annihilation</t>
+  </si>
+  <si>
+    <t>The Infernal Word</t>
+  </si>
+  <si>
+    <t>Cercle Rouge</t>
+  </si>
+  <si>
+    <t>Silent Killers</t>
+  </si>
+  <si>
+    <t>TOMO</t>
+  </si>
+  <si>
+    <t>Les loubards</t>
+  </si>
+  <si>
+    <t>PUNISHER</t>
+  </si>
+  <si>
+    <t>BroKoli</t>
+  </si>
+  <si>
+    <t>Les Gosses Broules</t>
+  </si>
+  <si>
+    <t>iNSTABLE</t>
+  </si>
+  <si>
+    <t>Smokers</t>
+  </si>
+  <si>
+    <t>Oppenheimer</t>
+  </si>
+  <si>
+    <t>The inquisition</t>
+  </si>
+  <si>
+    <t>Abracadabra</t>
+  </si>
+  <si>
+    <t>NFLR</t>
+  </si>
+  <si>
+    <t>guardians</t>
+  </si>
+  <si>
+    <t>winwa</t>
+  </si>
+  <si>
+    <t>The Blues Brothers</t>
+  </si>
+  <si>
+    <t>RadioExtraditables</t>
+  </si>
+  <si>
+    <t>H O N O R E D</t>
+  </si>
+  <si>
+    <t>Zoo Name</t>
+  </si>
+  <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>Untouchables</t>
+  </si>
+  <si>
+    <t>Anguille sous Roche</t>
+  </si>
+  <si>
+    <t>IYI</t>
+  </si>
+  <si>
+    <t>YventSaintLourent</t>
+  </si>
+  <si>
+    <t>No limit</t>
+  </si>
+  <si>
+    <t>double-monstre</t>
+  </si>
+  <si>
+    <t>Apollo gang</t>
+  </si>
+  <si>
+    <t>Association de malfaiteurs</t>
+  </si>
+  <si>
+    <t>Les nains capables</t>
+  </si>
+  <si>
+    <t>Timit notch</t>
+  </si>
+  <si>
+    <t>Veni-Vidi-Vici</t>
+  </si>
+  <si>
+    <t>forgoten</t>
+  </si>
+  <si>
+    <t>Holocausto</t>
+  </si>
+  <si>
+    <t>Los trolleadores</t>
+  </si>
+  <si>
+    <t>La Pinche para de brutas</t>
+  </si>
+  <si>
+    <t>God Hand</t>
+  </si>
+  <si>
+    <t>Samurai Black</t>
+  </si>
+  <si>
+    <t>Les hagrators</t>
+  </si>
+  <si>
+    <t>MVP Thief</t>
+  </si>
+  <si>
+    <t>Los Primikos</t>
+  </si>
+  <si>
+    <t>HyPG</t>
+  </si>
+  <si>
+    <t>Kamikaze Team</t>
+  </si>
+  <si>
+    <t>Los Kamikaze</t>
+  </si>
+  <si>
+    <t>Team Demiurge</t>
+  </si>
+  <si>
     <t>Fox-ez</t>
   </si>
   <si>
-    <t>Askip</t>
-  </si>
-  <si>
-    <t>Le retour</t>
-  </si>
-  <si>
-    <t>Percozition</t>
+    <t>De momento</t>
+  </si>
+  <si>
+    <t>Hueco mundo</t>
+  </si>
+  <si>
+    <t>Hagra time</t>
+  </si>
+  <si>
+    <t>Blacks</t>
+  </si>
+  <si>
+    <t>Rakatapumchinchin</t>
+  </si>
+  <si>
+    <t>No Pain - No Gain</t>
+  </si>
+  <si>
+    <t>Finito La Comedia</t>
+  </si>
+  <si>
+    <t>RadioHead</t>
+  </si>
+  <si>
+    <t>privilizi</t>
+  </si>
+  <si>
+    <t>Violencia</t>
+  </si>
+  <si>
+    <t>Herdoshi Cogita</t>
   </si>
   <si>
     <t>Batatilleros Power</t>
   </si>
   <si>
-    <t>Les potites loutres sanguinaires</t>
-  </si>
-  <si>
-    <t>La MIF</t>
-  </si>
-  <si>
-    <t>Annihilation</t>
-  </si>
-  <si>
-    <t>Les hhh</t>
-  </si>
-  <si>
-    <t>Petit Bateau</t>
-  </si>
-  <si>
-    <t>LES LASCARS</t>
-  </si>
-  <si>
-    <t>Juskicitouvabien</t>
-  </si>
-  <si>
-    <t>Full Counter</t>
-  </si>
-  <si>
-    <t>Hueco mundo</t>
-  </si>
-  <si>
-    <t>Les lionceaux</t>
-  </si>
-  <si>
-    <t>Herdoshi Cogita</t>
+    <t>Pelo Pelo</t>
+  </si>
+  <si>
+    <t>Les Lamas</t>
+  </si>
+  <si>
+    <t>Tonton Pingueur</t>
+  </si>
+  <si>
+    <t>MANKRAKEN</t>
+  </si>
+  <si>
+    <t>Clan Oshimo</t>
+  </si>
+  <si>
+    <t>Attention Frayeur</t>
+  </si>
+  <si>
+    <t>Les bourrins</t>
+  </si>
+  <si>
+    <t>Secte One</t>
+  </si>
+  <si>
+    <t>ANGAM</t>
+  </si>
+  <si>
+    <t>Zenith</t>
+  </si>
+  <si>
+    <t>Trio OjLama</t>
   </si>
   <si>
     <t>Sumatra</t>
   </si>
   <si>
-    <t>RadioHead</t>
-  </si>
-  <si>
-    <t>Pierre Feuille Ciseaux</t>
-  </si>
-  <si>
-    <t>ERREDE</t>
+    <t>Aminakoyim</t>
+  </si>
+  <si>
+    <t>Whoop</t>
+  </si>
+  <si>
+    <t>Rollback poulaillesque</t>
+  </si>
+  <si>
+    <t>Memento Mori</t>
+  </si>
+  <si>
+    <t>Assassins Crew</t>
   </si>
   <si>
     <t>Marche ou creve</t>
   </si>
   <si>
-    <t>Demons Des Arenes</t>
-  </si>
-  <si>
-    <t>Chaosmoz</t>
-  </si>
-  <si>
-    <t>Hide your poney</t>
-  </si>
-  <si>
-    <t>BroKoli</t>
-  </si>
-  <si>
-    <t>The Blues Brothers</t>
-  </si>
-  <si>
-    <t>Les Gosses Broules</t>
-  </si>
-  <si>
-    <t>Les bourrins</t>
-  </si>
-  <si>
-    <t>Igoshimo Blank</t>
-  </si>
-  <si>
-    <t>The Infernal Word</t>
-  </si>
-  <si>
-    <t>La Rolex de Zlatan</t>
-  </si>
-  <si>
-    <t>Tonton Pingueur</t>
-  </si>
-  <si>
-    <t>Cercle Rouge</t>
-  </si>
-  <si>
-    <t>IMPACT_</t>
-  </si>
-  <si>
-    <t>Clan Oshimo</t>
+    <t>AnthraX</t>
+  </si>
+  <si>
+    <t>ClanOSH</t>
+  </si>
+  <si>
+    <t>Tortulamas</t>
+  </si>
+  <si>
+    <t>Dark So</t>
+  </si>
+  <si>
+    <t>Dingue</t>
+  </si>
+  <si>
+    <t>Team Overlord</t>
+  </si>
+  <si>
+    <t>Ying-Yang</t>
+  </si>
+  <si>
+    <t>cripis mancoticks</t>
+  </si>
+  <si>
+    <t>Hors meta Ez</t>
+  </si>
+  <si>
+    <t>Mont Blank</t>
+  </si>
+  <si>
+    <t>Los Bebitos</t>
+  </si>
+  <si>
+    <t>V I P</t>
+  </si>
+  <si>
+    <t>Les plots de paille</t>
+  </si>
+  <si>
+    <t>Pocket Coffee</t>
+  </si>
+  <si>
+    <t>Los Ceramica Cheros</t>
+  </si>
+  <si>
+    <t>Wa Wa Wa</t>
   </si>
   <si>
     <t>Diversity</t>
   </si>
   <si>
-    <t>Secte One</t>
-  </si>
-  <si>
-    <t>BSL</t>
-  </si>
-  <si>
-    <t>Noobers Rangers</t>
-  </si>
-  <si>
-    <t>The inquisition</t>
-  </si>
-  <si>
-    <t>Sambayoyo</t>
-  </si>
-  <si>
-    <t>Les Lamas</t>
-  </si>
-  <si>
-    <t>Veni-Vidi-Vici</t>
-  </si>
-  <si>
-    <t>Night Club</t>
+    <t>Mes propositions deux-points</t>
+  </si>
+  <si>
+    <t>MATAR O MORIR</t>
+  </si>
+  <si>
+    <t>COMA</t>
+  </si>
+  <si>
+    <t>Esketuyang</t>
+  </si>
+  <si>
+    <t>ATOSHI</t>
+  </si>
+  <si>
+    <t>Puenta</t>
+  </si>
+  <si>
+    <t>No_Brain</t>
+  </si>
+  <si>
+    <t>Les Wavajay du Theowycwaft</t>
+  </si>
+  <si>
+    <t>Blitzkrieg Brutas</t>
+  </si>
+  <si>
+    <t>End of the game</t>
+  </si>
+  <si>
+    <t>HentaOne</t>
+  </si>
+  <si>
+    <t>Les Doyens</t>
   </si>
   <si>
     <t>Nakama</t>
   </si>
   <si>
-    <t>Mont Blank</t>
-  </si>
-  <si>
-    <t>Smokers</t>
+    <t>DARK GUILD</t>
+  </si>
+  <si>
+    <t>Coco</t>
+  </si>
+  <si>
+    <t>zataraopteam</t>
+  </si>
+  <si>
+    <t>Didichofer</t>
+  </si>
+  <si>
+    <t>Vixius</t>
   </si>
   <si>
     <t>Kush team</t>
   </si>
   <si>
-    <t>Violencia</t>
-  </si>
-  <si>
-    <t>RadioExtraditables</t>
-  </si>
-  <si>
-    <t>Les loubards</t>
-  </si>
-  <si>
-    <t>Oppenheimer</t>
-  </si>
-  <si>
-    <t>Attention Frayeur</t>
-  </si>
-  <si>
-    <t>Ying-Yang</t>
-  </si>
-  <si>
-    <t>Whoop</t>
-  </si>
-  <si>
-    <t>MANKRAKEN</t>
-  </si>
-  <si>
-    <t>Untouchables</t>
-  </si>
-  <si>
-    <t>Association de malfaiteurs</t>
-  </si>
-  <si>
-    <t>Les plots de paille</t>
-  </si>
-  <si>
-    <t>Dingue</t>
-  </si>
-  <si>
-    <t>Les Wavajay du Theowycwaft</t>
-  </si>
-  <si>
-    <t>La Kravatt</t>
-  </si>
-  <si>
-    <t>Los Ceramica Cheros</t>
-  </si>
-  <si>
-    <t>PUNISHER</t>
-  </si>
-  <si>
-    <t>Vixius</t>
-  </si>
-  <si>
-    <t>Tortulamas</t>
-  </si>
-  <si>
-    <t>No_Brain</t>
-  </si>
-  <si>
-    <t>Coco</t>
+    <t>the-mancos</t>
+  </si>
+  <si>
+    <t>C-O-T-E</t>
+  </si>
+  <si>
+    <t>Mvp</t>
+  </si>
+  <si>
+    <t>Ptit jaune</t>
+  </si>
+  <si>
+    <t>ANPE</t>
+  </si>
+  <si>
+    <t>LO MAS FRESA DEL PEDAZO</t>
+  </si>
+  <si>
+    <t>los maniaticos</t>
+  </si>
+  <si>
+    <t>Mandalorian</t>
+  </si>
+  <si>
+    <t>ROYALTY</t>
+  </si>
+  <si>
+    <t>SAO-TWO</t>
   </si>
   <si>
     <t>Chirrinchi</t>
   </si>
   <si>
-    <t>No limit</t>
-  </si>
-  <si>
-    <t>Wa Wa Wa</t>
-  </si>
-  <si>
-    <t>Les hagrators</t>
-  </si>
-  <si>
-    <t>Didichofer</t>
-  </si>
-  <si>
-    <t>Ptit jaune</t>
-  </si>
-  <si>
-    <t>MATAR O MORIR</t>
-  </si>
-  <si>
-    <t>HentaOne</t>
-  </si>
-  <si>
-    <t>Puenta</t>
-  </si>
-  <si>
-    <t>HyPG</t>
-  </si>
-  <si>
-    <t>PEAKY</t>
-  </si>
-  <si>
-    <t>COMA</t>
-  </si>
-  <si>
-    <t>forgoten</t>
-  </si>
-  <si>
-    <t>Les Doyens</t>
-  </si>
-  <si>
-    <t>Mandalorian</t>
-  </si>
-  <si>
     <t>Team Buitres</t>
   </si>
   <si>
-    <t>PANTHEON</t>
-  </si>
-  <si>
-    <t>La bavande</t>
-  </si>
-  <si>
-    <t>Skyp</t>
-  </si>
-  <si>
-    <t>Tight</t>
-  </si>
-  <si>
-    <t>Du nord au sud</t>
-  </si>
-  <si>
-    <t>De momento</t>
-  </si>
-  <si>
-    <t>Rakatapumchinchin</t>
-  </si>
-  <si>
-    <t>Finito La Comedia</t>
-  </si>
-  <si>
-    <t>No Pain - No Gain</t>
-  </si>
-  <si>
-    <t>Pelo Pelo</t>
-  </si>
-  <si>
-    <t>Team Demiurge</t>
-  </si>
-  <si>
-    <t>Terra-ciste</t>
-  </si>
-  <si>
-    <t>Hagra time</t>
-  </si>
-  <si>
-    <t>Les Bronzes</t>
-  </si>
-  <si>
-    <t>Team Overlord</t>
-  </si>
-  <si>
-    <t>SAO</t>
-  </si>
-  <si>
-    <t>Air Planes Mode</t>
-  </si>
-  <si>
-    <t>Blacks</t>
-  </si>
-  <si>
-    <t>Memento Mori</t>
-  </si>
-  <si>
-    <t>Squad-D_Rok</t>
-  </si>
-  <si>
-    <t>ANGAM</t>
-  </si>
-  <si>
-    <t>privilizi</t>
-  </si>
-  <si>
-    <t>QueBendicion</t>
-  </si>
-  <si>
-    <t>iNSTABLE</t>
-  </si>
-  <si>
-    <t>Abracadabra</t>
-  </si>
-  <si>
-    <t>Les bigs</t>
-  </si>
-  <si>
-    <t>Ocbzez</t>
-  </si>
-  <si>
-    <t>TOMO</t>
-  </si>
-  <si>
-    <t>winwa</t>
-  </si>
-  <si>
-    <t>YventSaintLourent</t>
-  </si>
-  <si>
-    <t>los maniaticos</t>
-  </si>
-  <si>
-    <t>guardians</t>
-  </si>
-  <si>
-    <t>H O N O R E D</t>
-  </si>
-  <si>
-    <t>SDT</t>
-  </si>
-  <si>
-    <t>C-O-T-E</t>
-  </si>
-  <si>
-    <t>DARK GUILD</t>
-  </si>
-  <si>
-    <t>Los Bebitos</t>
-  </si>
-  <si>
-    <t>God Hand</t>
-  </si>
-  <si>
-    <t>Pocket Coffee</t>
-  </si>
-  <si>
-    <t>Timit notch</t>
-  </si>
-  <si>
-    <t>Hors meta Ez</t>
-  </si>
-  <si>
-    <t>NFLR</t>
-  </si>
-  <si>
-    <t>Les nains capables</t>
-  </si>
-  <si>
-    <t>ClanOSH</t>
-  </si>
-  <si>
-    <t>Zoo Name</t>
-  </si>
-  <si>
-    <t>Trio OjLama</t>
-  </si>
-  <si>
-    <t>Anguille sous Roche</t>
-  </si>
-  <si>
-    <t>V I P</t>
-  </si>
-  <si>
-    <t>Assassins Crew</t>
-  </si>
-  <si>
-    <t>ATOSHI</t>
-  </si>
-  <si>
-    <t>Rollback poulaillesque</t>
-  </si>
-  <si>
-    <t>End of the game</t>
-  </si>
-  <si>
-    <t>Dark So</t>
-  </si>
-  <si>
-    <t>Mes propositions deux-points</t>
-  </si>
-  <si>
-    <t>Apollo gang</t>
-  </si>
-  <si>
-    <t>the-mancos</t>
-  </si>
-  <si>
-    <t>Holocausto</t>
-  </si>
-  <si>
-    <t>AnthraX</t>
-  </si>
-  <si>
-    <t>Aminakoyim</t>
-  </si>
-  <si>
-    <t>LO MAS FRESA DEL PEDAZO</t>
-  </si>
-  <si>
-    <t>Los trolleadores</t>
-  </si>
-  <si>
-    <t>cripis mancoticks</t>
-  </si>
-  <si>
-    <t>zataraopteam</t>
-  </si>
-  <si>
-    <t>Zenith</t>
-  </si>
-  <si>
-    <t>double-monstre</t>
-  </si>
-  <si>
-    <t>Silent Killers</t>
-  </si>
-  <si>
-    <t>Blitzkrieg Brutas</t>
-  </si>
-  <si>
-    <t>ROYALTY</t>
-  </si>
-  <si>
-    <t>SAO-TWO</t>
-  </si>
-  <si>
-    <t>La Pinche para de brutas</t>
-  </si>
-  <si>
-    <t>MVP Thief</t>
+    <t>Veterans</t>
   </si>
   <si>
     <t>Oblivion</t>
   </si>
   <si>
-    <t>IYI</t>
-  </si>
-  <si>
-    <t>Veterans</t>
-  </si>
-  <si>
-    <t>thanksfortuto</t>
-  </si>
-  <si>
-    <t>WAL</t>
-  </si>
-  <si>
-    <t>Kamikaze Team</t>
-  </si>
-  <si>
-    <t>cruji</t>
-  </si>
-  <si>
-    <t>ANPE</t>
-  </si>
-  <si>
-    <t>Mvp</t>
-  </si>
-  <si>
-    <t>Los Kamikaze</t>
-  </si>
-  <si>
-    <t>Los Primikos</t>
-  </si>
-  <si>
-    <t>Ezzzzzzzz</t>
-  </si>
-  <si>
-    <t>Samurai Black</t>
-  </si>
-  <si>
-    <t>Esketuyang</t>
-  </si>
-  <si>
-    <t>No Pain</t>
-  </si>
-  <si>
-    <t>draw</t>
+    <t>BYE</t>
+  </si>
+  <si>
+    <t>double_forfait</t>
   </si>
 </sst>
 </file>
@@ -896,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -935,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -949,10 +934,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -963,10 +948,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -977,10 +962,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -991,10 +976,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1005,10 +990,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1019,10 +1004,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1033,10 +1018,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1047,10 +1032,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1061,10 +1046,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1075,7 +1060,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1089,10 +1074,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1103,7 +1088,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1117,10 +1102,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1131,10 +1116,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1145,10 +1130,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1159,10 +1144,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1173,7 +1158,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1187,7 +1172,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -1201,10 +1186,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1215,10 +1200,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1229,10 +1214,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1243,10 +1228,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1257,10 +1242,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1271,10 +1256,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1285,10 +1270,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1299,10 +1284,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1313,10 +1298,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1327,10 +1312,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1341,7 +1326,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -1355,7 +1340,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
@@ -1369,7 +1354,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -1383,7 +1368,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -1397,7 +1382,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
@@ -1411,7 +1396,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
@@ -1425,10 +1410,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1439,10 +1424,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1453,10 +1438,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1467,10 +1452,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1481,10 +1466,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1495,10 +1480,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1509,7 +1494,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
@@ -1523,10 +1508,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1537,10 +1522,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1551,10 +1536,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1565,7 +1550,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
         <v>49</v>
@@ -1579,10 +1564,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1593,10 +1578,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1607,7 +1592,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
@@ -1621,10 +1606,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1635,7 +1620,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
         <v>54</v>
@@ -1649,10 +1634,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1663,7 +1648,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
         <v>56</v>
@@ -1677,7 +1662,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
@@ -1691,10 +1676,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1705,7 +1690,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
         <v>59</v>
@@ -1719,10 +1704,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1733,10 +1718,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1747,7 +1732,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
         <v>62</v>
@@ -1761,10 +1746,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1775,10 +1760,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1789,10 +1774,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1803,10 +1788,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1817,7 +1802,7 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
         <v>67</v>
@@ -1831,10 +1816,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1845,10 +1830,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1859,7 +1844,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
@@ -1873,7 +1858,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D70" t="s">
         <v>71</v>
@@ -1887,10 +1872,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1901,10 +1886,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1915,7 +1900,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
         <v>74</v>
@@ -1929,10 +1914,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1943,7 +1928,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
         <v>76</v>
@@ -1957,7 +1942,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
         <v>77</v>
@@ -1971,7 +1956,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D77" t="s">
         <v>78</v>
@@ -1985,10 +1970,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D78" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1999,10 +1984,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2013,10 +1998,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2027,10 +2012,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2041,7 +2026,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s">
         <v>83</v>
@@ -2055,10 +2040,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" t="s">
         <v>169</v>
-      </c>
-      <c r="D83" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2069,38 +2054,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>171</v>
-      </c>
-      <c r="D85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" t="s">
-        <v>172</v>
-      </c>
-      <c r="D86" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
